--- a/MavenDemoProject/TestData/LoginData.xlsx
+++ b/MavenDemoProject/TestData/LoginData.xlsx
@@ -21,10 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Veena.Anto@resmed.com</t>
+    <t>Resmed123</t>
   </si>
   <si>
-    <t>Resmed123</t>
+    <t>AUTOTESTER</t>
   </si>
 </sst>
 </file>
@@ -356,22 +356,25 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" display="Veena.Anto@resmed.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
